--- a/biology/Médecine/Gymnophobie/Gymnophobie.xlsx
+++ b/biology/Médecine/Gymnophobie/Gymnophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La gymnophobie est la phobie de la nudité. La nudophobie en est un quasi-synonyme, mais davantage lié à la culture : c'est la crainte ou la réprobation de la nudité humaine, spécialement la nudité intégrale, le nudisme ou le naturisme. 
 </t>
@@ -511,7 +523,9 @@
           <t>Série télévisée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La gymnophobie a été rendue célèbre notamment par la série télévisée Arrested Development, où l'un des personnages, Tobias, en est atteint[réf. nécessaire]. Cette phobie, quand elle n'est pas due à la religion, a souvent pour origine un sentiment de ne pas correspondre à une image d'un corps idéalisé par les médias[réf. nécessaire].
 </t>
